--- a/biology/Médecine/Alain_Braconnier/Alain_Braconnier.xlsx
+++ b/biology/Médecine/Alain_Braconnier/Alain_Braconnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Braconnier est un médecin psychiatre et psychanalyste français né au Perreux-sur-Marne le 21 octobre 1942[1], spécialiste de l'enfant et de l'adolescent.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Braconnier est un médecin psychiatre et psychanalyste français né au Perreux-sur-Marne le 21 octobre 1942, spécialiste de l'enfant et de l'adolescent.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le psychiatre et psychanalyste Alain Braconnier est consultant au CHU de la Pitié-Salpêtrière après avoir été directeur de l’Association de santé mentale du 13e arrondissement de Paris[2] et chef de service de la consultation pour adolescents du Centre Philippe Paumelle[3].
-Il  publie de nombreux articles en lien avec ses activités et regroupés sur le portail Cairn[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le psychiatre et psychanalyste Alain Braconnier est consultant au CHU de la Pitié-Salpêtrière après avoir été directeur de l’Association de santé mentale du 13e arrondissement de Paris et chef de service de la consultation pour adolescents du Centre Philippe Paumelle.
+Il  publie de nombreux articles en lien avec ses activités et regroupés sur le portail Cairn.
 </t>
         </is>
       </c>
@@ -545,17 +559,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Les Bleus de l'âme, Paris, Calmann Lévy, 1995, 192 p.    (ISBN 2-7021-2437-2)
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Bleus de l'âme, Paris, Calmann Lévy, 1995, 192 p.    (ISBN 2-7021-2437-2)
 Le sexe des émotions, Paris, Odile Jacob, 1996,  (ISBN 978-2-7381-0913-2)
 Petit ou grand anxieux, Paris, Odile Jacob, 2004, 384 p.  (ISBN 2-7381-1424-5)
 Mère et fils, Paris, Odile Jacob, 2005, 328 p.   (ISBN 2-7381-1569-1)
 Les filles et les pères, Paris, Odile Jacob, 2008, 288 p.  (ISBN 978-2-7381-1887-5)
 Protéger son soi pour vivre pleinement, Paris, Odile Jacob, 2010, 302 p.  (ISBN 978-2-7381-2418-0)
 Optimiste, Paris, Odile Jacob, 2013, 298 p.   (ISBN 978-2-7381-3060-0)
-Le meilleur thérapeute c’est vous, Paris, Odile Jacob, 2023, 224 p.   (ISBN 978-2-4150-0614-3)
-Publications en collaboration et en revues
-Psychanalyse et psychothérapie, Daniel Widlöcher (éd), Coauteurs : Marilia Aisenstein - Christine Anzieu-Premmereur - Bernard Brusset - Raymond Cahn - Serge Frisch - Bernard Golse - Roland Gori - Bertrand Hanin - Christian Hoffmann - Christian Lachal - Jean Laplanche - Sylvain Missonnier - Marie Rose Moro - Roger Perron - René Roussillon - Jacques Sédat, F-31520 Ramonville, érès, 2008, Le Carnet psy (dir. Manuelle Missonnier),  (ISBN 978-2-7492-0854-1).
+Le meilleur thérapeute c’est vous, Paris, Odile Jacob, 2023, 224 p.   (ISBN 978-2-4150-0614-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alain_Braconnier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Braconnier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications en collaboration et en revues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Psychanalyse et psychothérapie, Daniel Widlöcher (éd), Coauteurs : Marilia Aisenstein - Christine Anzieu-Premmereur - Bernard Brusset - Raymond Cahn - Serge Frisch - Bernard Golse - Roland Gori - Bertrand Hanin - Christian Hoffmann - Christian Lachal - Jean Laplanche - Sylvain Missonnier - Marie Rose Moro - Roger Perron - René Roussillon - Jacques Sédat, F-31520 Ramonville, érès, 2008, Le Carnet psy (dir. Manuelle Missonnier),  (ISBN 978-2-7492-0854-1).
 Alain Braconnier, « Crise de la transmission ? », Adolescence, 2017/2 (T. 35 n°2), p. 261-268. DOI : 10.3917/ado.100.0261. [lire en ligne]</t>
         </is>
       </c>
